--- a/scripts/h04_planning/output_v1/resite_plan_h04_result_v3.xlsx
+++ b/scripts/h04_planning/output_v1/resite_plan_h04_result_v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev Apps\home_n8n\scripts\h04_planning\output_v1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DEV\home_n8n\scripts\h04_planning\output_v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6CAC3D-F461-4E29-BE54-7CF1A24EBB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1362B5-418F-4B8D-B134-18D4805C984A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plan_h04_TTCM_result" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">plan_h04_TTCM_result!$A$1:$P$760</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -5929,21 +5929,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -5951,7 +5951,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -5959,7 +5959,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -5967,35 +5967,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6003,7 +6003,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6011,14 +6011,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6026,14 +6026,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6041,7 +6041,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6049,14 +6049,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6481,24 +6481,24 @@
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
-    <cellStyle name="Đầu đề 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Đầu đề 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Đầu đề 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Đầu đề 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Đầu ra" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Đầu vào" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ghi chú" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Kiểm tra Ô" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Ô được Nối kết" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Tiêu đề" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Tính toán" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Tổng" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Tốt" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Trung lập" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Văn bản Cảnh báo" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Văn bản Giải thích" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Xấu" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6514,9 +6514,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6554,7 +6554,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6660,7 +6660,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6802,7 +6802,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6810,33 +6810,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P760"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15:I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.09765625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.09765625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="21.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.69921875" style="3" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.3984375" style="3" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="22.59765625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="31.59765625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5703125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="31.5703125" style="3" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="16" width="22.8984375" style="10" customWidth="1"/>
+    <col min="16" max="16" width="22.85546875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6886,7 +6887,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -6934,7 +6935,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -6982,7 +6983,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -7030,7 +7031,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
@@ -7078,7 +7079,7 @@
       </c>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
@@ -7126,7 +7127,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
@@ -7174,7 +7175,7 @@
       </c>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
@@ -7222,7 +7223,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
@@ -7268,7 +7269,7 @@
       </c>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -7316,7 +7317,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>31</v>
       </c>
@@ -7364,7 +7365,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>32</v>
       </c>
@@ -7410,7 +7411,7 @@
       </c>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>34</v>
       </c>
@@ -7458,7 +7459,7 @@
       </c>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>35</v>
       </c>
@@ -7506,7 +7507,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>37</v>
       </c>
@@ -7554,7 +7555,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>39</v>
       </c>
@@ -7602,7 +7603,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>41</v>
       </c>
@@ -7650,7 +7651,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>43</v>
       </c>
@@ -7698,7 +7699,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>45</v>
       </c>
@@ -7746,7 +7747,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>47</v>
       </c>
@@ -7794,7 +7795,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>49</v>
       </c>
@@ -7842,7 +7843,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>51</v>
       </c>
@@ -7890,7 +7891,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>53</v>
       </c>
@@ -7938,7 +7939,7 @@
       </c>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>54</v>
       </c>
@@ -7986,7 +7987,7 @@
       </c>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>55</v>
       </c>
@@ -8034,7 +8035,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>57</v>
       </c>
@@ -8082,7 +8083,7 @@
       </c>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>58</v>
       </c>
@@ -8130,7 +8131,7 @@
       </c>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>59</v>
       </c>
@@ -8178,7 +8179,7 @@
       </c>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>60</v>
       </c>
@@ -8226,7 +8227,7 @@
       </c>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>61</v>
       </c>
@@ -8274,7 +8275,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>63</v>
       </c>
@@ -8322,7 +8323,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>65</v>
       </c>
@@ -8370,7 +8371,7 @@
       </c>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>66</v>
       </c>
@@ -8418,7 +8419,7 @@
       </c>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>67</v>
       </c>
@@ -8464,7 +8465,7 @@
       </c>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>68</v>
       </c>
@@ -8512,7 +8513,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>70</v>
       </c>
@@ -8560,7 +8561,7 @@
       </c>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>71</v>
       </c>
@@ -8608,7 +8609,7 @@
       </c>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>72</v>
       </c>
@@ -8656,7 +8657,7 @@
       </c>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>73</v>
       </c>
@@ -8704,7 +8705,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>75</v>
       </c>
@@ -8752,7 +8753,7 @@
       </c>
       <c r="P40" s="9"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>76</v>
       </c>
@@ -8800,7 +8801,7 @@
       </c>
       <c r="P41" s="9"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>77</v>
       </c>
@@ -8848,7 +8849,7 @@
       </c>
       <c r="P42" s="9"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>78</v>
       </c>
@@ -8896,7 +8897,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>80</v>
       </c>
@@ -8944,7 +8945,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>82</v>
       </c>
@@ -8992,7 +8993,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>84</v>
       </c>
@@ -9040,7 +9041,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>86</v>
       </c>
@@ -9088,7 +9089,7 @@
       </c>
       <c r="P47" s="9"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>87</v>
       </c>
@@ -9136,7 +9137,7 @@
       </c>
       <c r="P48" s="9"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>88</v>
       </c>
@@ -9184,7 +9185,7 @@
       </c>
       <c r="P49" s="9"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>89</v>
       </c>
@@ -9232,7 +9233,7 @@
       </c>
       <c r="P50" s="9"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>90</v>
       </c>
@@ -9280,7 +9281,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>92</v>
       </c>
@@ -9328,7 +9329,7 @@
       </c>
       <c r="P52" s="9"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>93</v>
       </c>
@@ -9376,7 +9377,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>95</v>
       </c>
@@ -9422,7 +9423,7 @@
       </c>
       <c r="P54" s="9"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>97</v>
       </c>
@@ -9470,7 +9471,7 @@
       </c>
       <c r="P55" s="9"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>98</v>
       </c>
@@ -9518,7 +9519,7 @@
       </c>
       <c r="P56" s="9"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>99</v>
       </c>
@@ -9566,7 +9567,7 @@
       </c>
       <c r="P57" s="9"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>100</v>
       </c>
@@ -9614,7 +9615,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>102</v>
       </c>
@@ -9662,7 +9663,7 @@
       </c>
       <c r="P59" s="9"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>103</v>
       </c>
@@ -9710,7 +9711,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>105</v>
       </c>
@@ -9758,7 +9759,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>107</v>
       </c>
@@ -9804,7 +9805,7 @@
       </c>
       <c r="P62" s="9"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>109</v>
       </c>
@@ -9850,7 +9851,7 @@
       </c>
       <c r="P63" s="9"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>111</v>
       </c>
@@ -9898,7 +9899,7 @@
       </c>
       <c r="P64" s="9"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>112</v>
       </c>
@@ -9946,7 +9947,7 @@
       </c>
       <c r="P65" s="9"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>113</v>
       </c>
@@ -9994,7 +9995,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>115</v>
       </c>
@@ -10042,7 +10043,7 @@
       </c>
       <c r="P67" s="9"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>116</v>
       </c>
@@ -10090,7 +10091,7 @@
       </c>
       <c r="P68" s="9"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>117</v>
       </c>
@@ -10138,7 +10139,7 @@
       </c>
       <c r="P69" s="9"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>118</v>
       </c>
@@ -10186,7 +10187,7 @@
       </c>
       <c r="P70" s="9"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>119</v>
       </c>
@@ -10232,7 +10233,7 @@
       </c>
       <c r="P71" s="9"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>121</v>
       </c>
@@ -10280,7 +10281,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>123</v>
       </c>
@@ -10328,7 +10329,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>125</v>
       </c>
@@ -10374,7 +10375,7 @@
       </c>
       <c r="P74" s="9"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>127</v>
       </c>
@@ -10422,7 +10423,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>129</v>
       </c>
@@ -10470,7 +10471,7 @@
       </c>
       <c r="P76" s="9"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>130</v>
       </c>
@@ -10518,7 +10519,7 @@
       </c>
       <c r="P77" s="9"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>131</v>
       </c>
@@ -10566,7 +10567,7 @@
       </c>
       <c r="P78" s="9"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>132</v>
       </c>
@@ -10612,7 +10613,7 @@
       </c>
       <c r="P79" s="9"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>134</v>
       </c>
@@ -10660,7 +10661,7 @@
       </c>
       <c r="P80" s="9"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>135</v>
       </c>
@@ -10708,7 +10709,7 @@
       </c>
       <c r="P81" s="9"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>136</v>
       </c>
@@ -10756,7 +10757,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>138</v>
       </c>
@@ -10804,7 +10805,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>140</v>
       </c>
@@ -10852,7 +10853,7 @@
       </c>
       <c r="P84" s="9"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>141</v>
       </c>
@@ -10900,7 +10901,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>143</v>
       </c>
@@ -10948,7 +10949,7 @@
       </c>
       <c r="P86" s="9"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>144</v>
       </c>
@@ -10996,7 +10997,7 @@
       </c>
       <c r="P87" s="9"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>145</v>
       </c>
@@ -11044,7 +11045,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>147</v>
       </c>
@@ -11092,7 +11093,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>149</v>
       </c>
@@ -11140,7 +11141,7 @@
       </c>
       <c r="P90" s="9"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>150</v>
       </c>
@@ -11186,7 +11187,7 @@
       </c>
       <c r="P91" s="9"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>152</v>
       </c>
@@ -11234,7 +11235,7 @@
       </c>
       <c r="P92" s="9"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>154</v>
       </c>
@@ -11280,7 +11281,7 @@
       </c>
       <c r="P93" s="9"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>155</v>
       </c>
@@ -11328,7 +11329,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>157</v>
       </c>
@@ -11376,7 +11377,7 @@
       </c>
       <c r="P95" s="9"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>158</v>
       </c>
@@ -11424,7 +11425,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>160</v>
       </c>
@@ -11472,7 +11473,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>162</v>
       </c>
@@ -11520,7 +11521,7 @@
       </c>
       <c r="P98" s="9"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>163</v>
       </c>
@@ -11568,7 +11569,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>165</v>
       </c>
@@ -11616,7 +11617,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>167</v>
       </c>
@@ -11664,7 +11665,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>169</v>
       </c>
@@ -11712,7 +11713,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>171</v>
       </c>
@@ -11760,7 +11761,7 @@
       </c>
       <c r="P103" s="9"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>172</v>
       </c>
@@ -11808,7 +11809,7 @@
       </c>
       <c r="P104" s="9"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>173</v>
       </c>
@@ -11856,7 +11857,7 @@
       </c>
       <c r="P105" s="9"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>174</v>
       </c>
@@ -11904,7 +11905,7 @@
       </c>
       <c r="P106" s="9"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>175</v>
       </c>
@@ -11952,7 +11953,7 @@
       </c>
       <c r="P107" s="9"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>176</v>
       </c>
@@ -12000,7 +12001,7 @@
       </c>
       <c r="P108" s="9"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>177</v>
       </c>
@@ -12046,7 +12047,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>180</v>
       </c>
@@ -12092,7 +12093,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>182</v>
       </c>
@@ -12138,7 +12139,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>184</v>
       </c>
@@ -12166,7 +12167,7 @@
       <c r="O112" s="2"/>
       <c r="P112" s="9"/>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>185</v>
       </c>
@@ -12212,7 +12213,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>187</v>
       </c>
@@ -12240,7 +12241,7 @@
       <c r="O114" s="2"/>
       <c r="P114" s="9"/>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>188</v>
       </c>
@@ -12268,7 +12269,7 @@
       <c r="O115" s="2"/>
       <c r="P115" s="9"/>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>189</v>
       </c>
@@ -12312,7 +12313,7 @@
       <c r="O116" s="2"/>
       <c r="P116" s="9"/>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>191</v>
       </c>
@@ -12356,7 +12357,7 @@
       <c r="O117" s="2"/>
       <c r="P117" s="9"/>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>193</v>
       </c>
@@ -12400,7 +12401,7 @@
       <c r="O118" s="2"/>
       <c r="P118" s="9"/>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>195</v>
       </c>
@@ -12446,7 +12447,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>197</v>
       </c>
@@ -12492,7 +12493,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>199</v>
       </c>
@@ -12538,7 +12539,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>201</v>
       </c>
@@ -12584,7 +12585,7 @@
       <c r="O122" s="2"/>
       <c r="P122" s="9"/>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>202</v>
       </c>
@@ -12630,7 +12631,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>204</v>
       </c>
@@ -12676,7 +12677,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>206</v>
       </c>
@@ -12722,7 +12723,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>208</v>
       </c>
@@ -12768,7 +12769,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>210</v>
       </c>
@@ -12814,7 +12815,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>212</v>
       </c>
@@ -12860,7 +12861,7 @@
       <c r="O128" s="2"/>
       <c r="P128" s="9"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>214</v>
       </c>
@@ -12906,7 +12907,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>216</v>
       </c>
@@ -12952,7 +12953,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>218</v>
       </c>
@@ -12996,7 +12997,7 @@
       <c r="O131" s="2"/>
       <c r="P131" s="9"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>220</v>
       </c>
@@ -13042,7 +13043,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>221</v>
       </c>
@@ -13088,7 +13089,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>223</v>
       </c>
@@ -14084,7 +14085,7 @@
       <c r="O156" s="2"/>
       <c r="P156" s="9"/>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>261</v>
       </c>
@@ -14130,7 +14131,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>263</v>
       </c>
@@ -14174,7 +14175,7 @@
       <c r="O158" s="2"/>
       <c r="P158" s="9"/>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>265</v>
       </c>
@@ -14202,7 +14203,7 @@
       <c r="O159" s="2"/>
       <c r="P159" s="9"/>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>266</v>
       </c>
@@ -14248,7 +14249,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>268</v>
       </c>
@@ -14294,7 +14295,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>270</v>
       </c>
@@ -14322,7 +14323,7 @@
       <c r="O162" s="2"/>
       <c r="P162" s="9"/>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>271</v>
       </c>
@@ -14368,7 +14369,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>273</v>
       </c>
@@ -14414,7 +14415,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>275</v>
       </c>
@@ -14460,7 +14461,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>277</v>
       </c>
@@ -14506,7 +14507,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>278</v>
       </c>
@@ -14552,7 +14553,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>280</v>
       </c>
@@ -14598,7 +14599,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>281</v>
       </c>
@@ -14644,7 +14645,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>283</v>
       </c>
@@ -14690,7 +14691,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>285</v>
       </c>
@@ -14736,7 +14737,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>287</v>
       </c>
@@ -14782,7 +14783,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>289</v>
       </c>
@@ -14828,7 +14829,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>291</v>
       </c>
@@ -14874,7 +14875,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>293</v>
       </c>
@@ -14920,7 +14921,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>295</v>
       </c>
@@ -14966,7 +14967,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>297</v>
       </c>
@@ -15012,7 +15013,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>299</v>
       </c>
@@ -15058,7 +15059,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>301</v>
       </c>
@@ -15104,7 +15105,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>302</v>
       </c>
@@ -15132,7 +15133,7 @@
       <c r="O180" s="2"/>
       <c r="P180" s="9"/>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>303</v>
       </c>
@@ -15178,7 +15179,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>305</v>
       </c>
@@ -15224,7 +15225,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>307</v>
       </c>
@@ -15270,7 +15271,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>309</v>
       </c>
@@ -15316,7 +15317,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>311</v>
       </c>
@@ -15362,7 +15363,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>313</v>
       </c>
@@ -15408,7 +15409,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>314</v>
       </c>
@@ -15454,7 +15455,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>315</v>
       </c>
@@ -15500,7 +15501,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>317</v>
       </c>
@@ -15544,7 +15545,7 @@
       <c r="O189" s="2"/>
       <c r="P189" s="9"/>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>319</v>
       </c>
@@ -15588,7 +15589,7 @@
       <c r="O190" s="2"/>
       <c r="P190" s="9"/>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>320</v>
       </c>
@@ -15632,7 +15633,7 @@
       <c r="O191" s="2"/>
       <c r="P191" s="9"/>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>322</v>
       </c>
@@ -15678,7 +15679,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>324</v>
       </c>
@@ -15722,7 +15723,7 @@
       <c r="O193" s="2"/>
       <c r="P193" s="9"/>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>325</v>
       </c>
@@ -15766,7 +15767,7 @@
       <c r="O194" s="2"/>
       <c r="P194" s="9"/>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>327</v>
       </c>
@@ -15812,7 +15813,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>328</v>
       </c>
@@ -15858,7 +15859,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>330</v>
       </c>
@@ -15904,7 +15905,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>332</v>
       </c>
@@ -15950,7 +15951,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>334</v>
       </c>
@@ -15996,7 +15997,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>336</v>
       </c>
@@ -16042,7 +16043,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>338</v>
       </c>
@@ -16088,7 +16089,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>340</v>
       </c>
@@ -16134,7 +16135,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>342</v>
       </c>
@@ -16180,7 +16181,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>344</v>
       </c>
@@ -16226,7 +16227,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>346</v>
       </c>
@@ -16270,7 +16271,7 @@
       <c r="O205" s="2"/>
       <c r="P205" s="9"/>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>348</v>
       </c>
@@ -16316,7 +16317,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>350</v>
       </c>
@@ -16360,7 +16361,7 @@
       <c r="O207" s="2"/>
       <c r="P207" s="9"/>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>352</v>
       </c>
@@ -16406,7 +16407,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>354</v>
       </c>
@@ -16452,7 +16453,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>355</v>
       </c>
@@ -16498,7 +16499,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>356</v>
       </c>
@@ -16544,7 +16545,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>357</v>
       </c>
@@ -16590,7 +16591,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>359</v>
       </c>
@@ -16636,7 +16637,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>361</v>
       </c>
@@ -16680,7 +16681,7 @@
       <c r="O214" s="2"/>
       <c r="P214" s="9"/>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>363</v>
       </c>
@@ -16726,7 +16727,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
         <v>365</v>
       </c>
@@ -16772,7 +16773,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>366</v>
       </c>
@@ -16816,7 +16817,7 @@
       <c r="O217" s="2"/>
       <c r="P217" s="9"/>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
         <v>368</v>
       </c>
@@ -16862,7 +16863,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>370</v>
       </c>
@@ -16908,7 +16909,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>372</v>
       </c>
@@ -16952,7 +16953,7 @@
       <c r="O220" s="2"/>
       <c r="P220" s="9"/>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>373</v>
       </c>
@@ -16998,7 +16999,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>375</v>
       </c>
@@ -17044,7 +17045,7 @@
       <c r="O222" s="2"/>
       <c r="P222" s="9"/>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>376</v>
       </c>
@@ -17090,7 +17091,7 @@
       <c r="O223" s="2"/>
       <c r="P223" s="9"/>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
         <v>377</v>
       </c>
@@ -17136,7 +17137,7 @@
       <c r="O224" s="2"/>
       <c r="P224" s="9"/>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>378</v>
       </c>
@@ -17182,7 +17183,7 @@
       <c r="O225" s="2"/>
       <c r="P225" s="9"/>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>379</v>
       </c>
@@ -17228,7 +17229,7 @@
       <c r="O226" s="2"/>
       <c r="P226" s="9"/>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>380</v>
       </c>
@@ -17274,7 +17275,7 @@
       <c r="O227" s="2"/>
       <c r="P227" s="9"/>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>381</v>
       </c>
@@ -17320,7 +17321,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>383</v>
       </c>
@@ -17366,7 +17367,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>384</v>
       </c>
@@ -17412,7 +17413,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>385</v>
       </c>
@@ -17458,7 +17459,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>386</v>
       </c>
@@ -17504,7 +17505,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>388</v>
       </c>
@@ -17550,7 +17551,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>390</v>
       </c>
@@ -17594,7 +17595,7 @@
       <c r="O234" s="2"/>
       <c r="P234" s="9"/>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>392</v>
       </c>
@@ -17640,7 +17641,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
         <v>394</v>
       </c>
@@ -17686,7 +17687,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
         <v>396</v>
       </c>
@@ -17732,7 +17733,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
         <v>398</v>
       </c>
@@ -17778,7 +17779,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
         <v>400</v>
       </c>
@@ -17824,7 +17825,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
         <v>402</v>
       </c>
@@ -17870,7 +17871,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
         <v>404</v>
       </c>
@@ -17916,7 +17917,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
         <v>406</v>
       </c>
@@ -17962,7 +17963,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
         <v>408</v>
       </c>
@@ -18008,7 +18009,7 @@
       <c r="O243" s="2"/>
       <c r="P243" s="9"/>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
         <v>409</v>
       </c>
@@ -18052,7 +18053,7 @@
       <c r="O244" s="2"/>
       <c r="P244" s="9"/>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
         <v>411</v>
       </c>
@@ -18098,7 +18099,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>412</v>
       </c>
@@ -18144,7 +18145,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
         <v>414</v>
       </c>
@@ -18190,7 +18191,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
         <v>416</v>
       </c>
@@ -18236,7 +18237,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>418</v>
       </c>
@@ -18282,7 +18283,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
         <v>419</v>
       </c>
@@ -18328,7 +18329,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
         <v>420</v>
       </c>
@@ -18374,7 +18375,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
         <v>421</v>
       </c>
@@ -18420,7 +18421,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
         <v>422</v>
       </c>
@@ -18466,7 +18467,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
         <v>424</v>
       </c>
@@ -18512,7 +18513,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
         <v>425</v>
       </c>
@@ -18558,7 +18559,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
         <v>427</v>
       </c>
@@ -18604,7 +18605,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
         <v>429</v>
       </c>
@@ -18648,7 +18649,7 @@
       <c r="O257" s="2"/>
       <c r="P257" s="9"/>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
         <v>431</v>
       </c>
@@ -18676,7 +18677,7 @@
       <c r="O258" s="2"/>
       <c r="P258" s="9"/>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
         <v>432</v>
       </c>
@@ -18720,7 +18721,7 @@
       <c r="O259" s="2"/>
       <c r="P259" s="9"/>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
         <v>433</v>
       </c>
@@ -18764,7 +18765,7 @@
       <c r="O260" s="2"/>
       <c r="P260" s="9"/>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
         <v>435</v>
       </c>
@@ -18810,7 +18811,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
         <v>437</v>
       </c>
@@ -18854,7 +18855,7 @@
       <c r="O262" s="2"/>
       <c r="P262" s="9"/>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
         <v>438</v>
       </c>
@@ -18900,7 +18901,7 @@
       <c r="O263" s="2"/>
       <c r="P263" s="9"/>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
         <v>439</v>
       </c>
@@ -18946,7 +18947,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
         <v>441</v>
       </c>
@@ -18990,7 +18991,7 @@
       <c r="O265" s="2"/>
       <c r="P265" s="9"/>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
         <v>443</v>
       </c>
@@ -19036,7 +19037,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
         <v>445</v>
       </c>
@@ -19082,7 +19083,7 @@
       <c r="O267" s="2"/>
       <c r="P267" s="9"/>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
         <v>446</v>
       </c>
@@ -19128,7 +19129,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
         <v>448</v>
       </c>
@@ -19174,7 +19175,7 @@
       <c r="O269" s="2"/>
       <c r="P269" s="9"/>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
         <v>449</v>
       </c>
@@ -19220,7 +19221,7 @@
       <c r="O270" s="2"/>
       <c r="P270" s="9"/>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
         <v>450</v>
       </c>
@@ -19264,7 +19265,7 @@
       <c r="O271" s="2"/>
       <c r="P271" s="9"/>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
         <v>452</v>
       </c>
@@ -19310,7 +19311,7 @@
       <c r="O272" s="2"/>
       <c r="P272" s="9"/>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
         <v>453</v>
       </c>
@@ -19354,7 +19355,7 @@
       <c r="O273" s="2"/>
       <c r="P273" s="9"/>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
         <v>455</v>
       </c>
@@ -19398,7 +19399,7 @@
       <c r="O274" s="2"/>
       <c r="P274" s="9"/>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
         <v>457</v>
       </c>
@@ -19444,7 +19445,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
         <v>458</v>
       </c>
@@ -19490,7 +19491,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
         <v>459</v>
       </c>
@@ -19534,7 +19535,7 @@
       <c r="O277" s="2"/>
       <c r="P277" s="9"/>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
         <v>461</v>
       </c>
@@ -19580,7 +19581,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
         <v>462</v>
       </c>
@@ -19624,7 +19625,7 @@
       <c r="O279" s="2"/>
       <c r="P279" s="9"/>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
         <v>463</v>
       </c>
@@ -19670,7 +19671,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
         <v>464</v>
       </c>
@@ -19714,7 +19715,7 @@
       <c r="O281" s="2"/>
       <c r="P281" s="9"/>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
         <v>466</v>
       </c>
@@ -19760,7 +19761,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
         <v>468</v>
       </c>
@@ -19806,7 +19807,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
         <v>470</v>
       </c>
@@ -19850,7 +19851,7 @@
       <c r="O284" s="2"/>
       <c r="P284" s="9"/>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
         <v>472</v>
       </c>
@@ -19894,7 +19895,7 @@
       <c r="O285" s="2"/>
       <c r="P285" s="9"/>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
         <v>474</v>
       </c>
@@ -19940,7 +19941,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
         <v>476</v>
       </c>
@@ -19968,7 +19969,7 @@
       <c r="O287" s="2"/>
       <c r="P287" s="9"/>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
         <v>477</v>
       </c>
@@ -20012,7 +20013,7 @@
       <c r="O288" s="2"/>
       <c r="P288" s="9"/>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
         <v>479</v>
       </c>
@@ -20058,7 +20059,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
         <v>480</v>
       </c>
@@ -20104,7 +20105,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
         <v>482</v>
       </c>
@@ -20150,7 +20151,7 @@
       <c r="O291" s="2"/>
       <c r="P291" s="9"/>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
         <v>483</v>
       </c>
@@ -20196,7 +20197,7 @@
       <c r="O292" s="2"/>
       <c r="P292" s="9"/>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
         <v>484</v>
       </c>
@@ -20242,7 +20243,7 @@
       <c r="O293" s="2"/>
       <c r="P293" s="9"/>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
         <v>485</v>
       </c>
@@ -20288,7 +20289,7 @@
       <c r="O294" s="2"/>
       <c r="P294" s="9"/>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
         <v>486</v>
       </c>
@@ -20334,7 +20335,7 @@
       <c r="O295" s="2"/>
       <c r="P295" s="9"/>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
         <v>487</v>
       </c>
@@ -20380,7 +20381,7 @@
       <c r="O296" s="2"/>
       <c r="P296" s="9"/>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
         <v>488</v>
       </c>
@@ -20426,7 +20427,7 @@
       <c r="O297" s="2"/>
       <c r="P297" s="9"/>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
         <v>489</v>
       </c>
@@ -20472,7 +20473,7 @@
       <c r="O298" s="2"/>
       <c r="P298" s="9"/>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="7" t="s">
         <v>490</v>
       </c>
@@ -20518,7 +20519,7 @@
       <c r="O299" s="2"/>
       <c r="P299" s="9"/>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="7" t="s">
         <v>491</v>
       </c>
@@ -20564,7 +20565,7 @@
       <c r="O300" s="2"/>
       <c r="P300" s="9"/>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="7" t="s">
         <v>492</v>
       </c>
@@ -20610,7 +20611,7 @@
       <c r="O301" s="2"/>
       <c r="P301" s="9"/>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
         <v>493</v>
       </c>
@@ -20654,7 +20655,7 @@
       <c r="O302" s="2"/>
       <c r="P302" s="9"/>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="7" t="s">
         <v>495</v>
       </c>
@@ -20700,7 +20701,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
         <v>497</v>
       </c>
@@ -20744,7 +20745,7 @@
       <c r="O304" s="2"/>
       <c r="P304" s="9"/>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
         <v>499</v>
       </c>
@@ -20788,7 +20789,7 @@
       <c r="O305" s="2"/>
       <c r="P305" s="9"/>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
         <v>501</v>
       </c>
@@ -20832,7 +20833,7 @@
       <c r="O306" s="2"/>
       <c r="P306" s="9"/>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
         <v>503</v>
       </c>
@@ -20878,7 +20879,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
         <v>505</v>
       </c>
@@ -20922,7 +20923,7 @@
       <c r="O308" s="2"/>
       <c r="P308" s="9"/>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
         <v>506</v>
       </c>
@@ -20966,7 +20967,7 @@
       <c r="O309" s="2"/>
       <c r="P309" s="9"/>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
         <v>508</v>
       </c>
@@ -21010,7 +21011,7 @@
       <c r="O310" s="2"/>
       <c r="P310" s="9"/>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
         <v>510</v>
       </c>
@@ -21056,7 +21057,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
         <v>511</v>
       </c>
@@ -21100,7 +21101,7 @@
       <c r="O312" s="2"/>
       <c r="P312" s="9"/>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
         <v>512</v>
       </c>
@@ -21146,7 +21147,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="7" t="s">
         <v>514</v>
       </c>
@@ -21190,7 +21191,7 @@
       <c r="O314" s="2"/>
       <c r="P314" s="9"/>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
         <v>515</v>
       </c>
@@ -21236,7 +21237,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
         <v>516</v>
       </c>
@@ -21282,7 +21283,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="7" t="s">
         <v>518</v>
       </c>
@@ -21326,7 +21327,7 @@
       <c r="O317" s="2"/>
       <c r="P317" s="9"/>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="7" t="s">
         <v>519</v>
       </c>
@@ -21354,7 +21355,7 @@
       <c r="O318" s="2"/>
       <c r="P318" s="9"/>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
         <v>520</v>
       </c>
@@ -21400,7 +21401,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
         <v>522</v>
       </c>
@@ -21446,7 +21447,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
         <v>524</v>
       </c>
@@ -21492,7 +21493,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="7" t="s">
         <v>526</v>
       </c>
@@ -21538,7 +21539,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="7" t="s">
         <v>528</v>
       </c>
@@ -21584,7 +21585,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="7" t="s">
         <v>530</v>
       </c>
@@ -21630,7 +21631,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="7" t="s">
         <v>531</v>
       </c>
@@ -21676,7 +21677,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="7" t="s">
         <v>533</v>
       </c>
@@ -21722,7 +21723,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="7" t="s">
         <v>535</v>
       </c>
@@ -21768,7 +21769,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="7" t="s">
         <v>537</v>
       </c>
@@ -21812,7 +21813,7 @@
       <c r="O328" s="2"/>
       <c r="P328" s="9"/>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="7" t="s">
         <v>538</v>
       </c>
@@ -21858,7 +21859,7 @@
       <c r="O329" s="2"/>
       <c r="P329" s="9"/>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="7" t="s">
         <v>539</v>
       </c>
@@ -21904,7 +21905,7 @@
       <c r="O330" s="2"/>
       <c r="P330" s="9"/>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="7" t="s">
         <v>540</v>
       </c>
@@ -21950,7 +21951,7 @@
       <c r="O331" s="2"/>
       <c r="P331" s="9"/>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="7" t="s">
         <v>541</v>
       </c>
@@ -21996,7 +21997,7 @@
       <c r="O332" s="2"/>
       <c r="P332" s="9"/>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="7" t="s">
         <v>542</v>
       </c>
@@ -22042,7 +22043,7 @@
       <c r="O333" s="2"/>
       <c r="P333" s="9"/>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="7" t="s">
         <v>543</v>
       </c>
@@ -22088,7 +22089,7 @@
       <c r="O334" s="2"/>
       <c r="P334" s="9"/>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="7" t="s">
         <v>544</v>
       </c>
@@ -22134,7 +22135,7 @@
       <c r="O335" s="2"/>
       <c r="P335" s="9"/>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="7" t="s">
         <v>545</v>
       </c>
@@ -22180,7 +22181,7 @@
       <c r="O336" s="2"/>
       <c r="P336" s="9"/>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="7" t="s">
         <v>546</v>
       </c>
@@ -22226,7 +22227,7 @@
       <c r="O337" s="2"/>
       <c r="P337" s="9"/>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="7" t="s">
         <v>548</v>
       </c>
@@ -22272,7 +22273,7 @@
       <c r="O338" s="2"/>
       <c r="P338" s="9"/>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="7" t="s">
         <v>549</v>
       </c>
@@ -22318,7 +22319,7 @@
       <c r="O339" s="2"/>
       <c r="P339" s="9"/>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="7" t="s">
         <v>550</v>
       </c>
@@ -22364,7 +22365,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="7" t="s">
         <v>552</v>
       </c>
@@ -22410,7 +22411,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="7" t="s">
         <v>554</v>
       </c>
@@ -22456,7 +22457,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="7" t="s">
         <v>556</v>
       </c>
@@ -22500,7 +22501,7 @@
       <c r="O343" s="2"/>
       <c r="P343" s="9"/>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="7" t="s">
         <v>558</v>
       </c>
@@ -22544,7 +22545,7 @@
       <c r="O344" s="2"/>
       <c r="P344" s="9"/>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="7" t="s">
         <v>559</v>
       </c>
@@ -22590,7 +22591,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="7" t="s">
         <v>561</v>
       </c>
@@ -22634,7 +22635,7 @@
       <c r="O346" s="2"/>
       <c r="P346" s="9"/>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="7" t="s">
         <v>563</v>
       </c>
@@ -22680,7 +22681,7 @@
       <c r="O347" s="2"/>
       <c r="P347" s="9"/>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="7" t="s">
         <v>564</v>
       </c>
@@ -22726,7 +22727,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="7" t="s">
         <v>565</v>
       </c>
@@ -22772,7 +22773,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="7" t="s">
         <v>567</v>
       </c>
@@ -22818,7 +22819,7 @@
       <c r="O350" s="2"/>
       <c r="P350" s="9"/>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="7" t="s">
         <v>568</v>
       </c>
@@ -22862,7 +22863,7 @@
       <c r="O351" s="2"/>
       <c r="P351" s="9"/>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="7" t="s">
         <v>570</v>
       </c>
@@ -22908,7 +22909,7 @@
       <c r="O352" s="2"/>
       <c r="P352" s="9"/>
     </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="7" t="s">
         <v>571</v>
       </c>
@@ -22954,7 +22955,7 @@
       <c r="O353" s="2"/>
       <c r="P353" s="9"/>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="7" t="s">
         <v>572</v>
       </c>
@@ -23000,7 +23001,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="7" t="s">
         <v>574</v>
       </c>
@@ -23046,7 +23047,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="7" t="s">
         <v>576</v>
       </c>
@@ -23092,7 +23093,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="7" t="s">
         <v>578</v>
       </c>
@@ -23136,7 +23137,7 @@
       <c r="O357" s="2"/>
       <c r="P357" s="9"/>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="7" t="s">
         <v>579</v>
       </c>
@@ -23182,7 +23183,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="7" t="s">
         <v>581</v>
       </c>
@@ -23228,7 +23229,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="7" t="s">
         <v>583</v>
       </c>
@@ -23256,7 +23257,7 @@
       <c r="O360" s="2"/>
       <c r="P360" s="9"/>
     </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="7" t="s">
         <v>584</v>
       </c>
@@ -23302,7 +23303,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="7" t="s">
         <v>586</v>
       </c>
@@ -23346,7 +23347,7 @@
       <c r="O362" s="2"/>
       <c r="P362" s="9"/>
     </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="7" t="s">
         <v>588</v>
       </c>
@@ -23392,7 +23393,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="7" t="s">
         <v>589</v>
       </c>
@@ -23438,7 +23439,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="7" t="s">
         <v>591</v>
       </c>
@@ -23484,7 +23485,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="7" t="s">
         <v>593</v>
       </c>
@@ -23530,7 +23531,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="7" t="s">
         <v>595</v>
       </c>
@@ -23574,7 +23575,7 @@
       <c r="O367" s="2"/>
       <c r="P367" s="9"/>
     </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="7" t="s">
         <v>597</v>
       </c>
@@ -23620,7 +23621,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="7" t="s">
         <v>599</v>
       </c>
@@ -23666,7 +23667,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="7" t="s">
         <v>600</v>
       </c>
@@ -23712,7 +23713,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="7" t="s">
         <v>601</v>
       </c>
@@ -23758,7 +23759,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="7" t="s">
         <v>603</v>
       </c>
@@ -23804,7 +23805,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="7" t="s">
         <v>605</v>
       </c>
@@ -23848,7 +23849,7 @@
       <c r="O373" s="2"/>
       <c r="P373" s="9"/>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="7" t="s">
         <v>607</v>
       </c>
@@ -23894,7 +23895,7 @@
       <c r="O374" s="2"/>
       <c r="P374" s="9"/>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="7" t="s">
         <v>608</v>
       </c>
@@ -23940,7 +23941,7 @@
       <c r="O375" s="2"/>
       <c r="P375" s="9"/>
     </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="7" t="s">
         <v>609</v>
       </c>
@@ -23986,7 +23987,7 @@
       <c r="O376" s="2"/>
       <c r="P376" s="9"/>
     </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="7" t="s">
         <v>610</v>
       </c>
@@ -24032,7 +24033,7 @@
       <c r="O377" s="2"/>
       <c r="P377" s="9"/>
     </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="7" t="s">
         <v>611</v>
       </c>
@@ -24078,7 +24079,7 @@
       <c r="O378" s="2"/>
       <c r="P378" s="9"/>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="7" t="s">
         <v>612</v>
       </c>
@@ -24124,7 +24125,7 @@
       <c r="O379" s="2"/>
       <c r="P379" s="9"/>
     </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="7" t="s">
         <v>613</v>
       </c>
@@ -24170,7 +24171,7 @@
       <c r="O380" s="2"/>
       <c r="P380" s="9"/>
     </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="7" t="s">
         <v>614</v>
       </c>
@@ -24214,7 +24215,7 @@
       <c r="O381" s="2"/>
       <c r="P381" s="9"/>
     </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="7" t="s">
         <v>616</v>
       </c>
@@ -24260,7 +24261,7 @@
       <c r="O382" s="2"/>
       <c r="P382" s="9"/>
     </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="7" t="s">
         <v>617</v>
       </c>
@@ -24306,7 +24307,7 @@
       <c r="O383" s="2"/>
       <c r="P383" s="9"/>
     </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="7" t="s">
         <v>618</v>
       </c>
@@ -24350,7 +24351,7 @@
       <c r="O384" s="2"/>
       <c r="P384" s="9"/>
     </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="7" t="s">
         <v>619</v>
       </c>
@@ -24396,7 +24397,7 @@
       <c r="O385" s="2"/>
       <c r="P385" s="9"/>
     </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="7" t="s">
         <v>620</v>
       </c>
@@ -24442,7 +24443,7 @@
       <c r="O386" s="2"/>
       <c r="P386" s="9"/>
     </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="7" t="s">
         <v>621</v>
       </c>
@@ -24488,7 +24489,7 @@
       <c r="O387" s="2"/>
       <c r="P387" s="9"/>
     </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="7" t="s">
         <v>622</v>
       </c>
@@ -24534,7 +24535,7 @@
       <c r="O388" s="2"/>
       <c r="P388" s="9"/>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="7" t="s">
         <v>623</v>
       </c>
@@ -24580,7 +24581,7 @@
       <c r="O389" s="2"/>
       <c r="P389" s="9"/>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="7" t="s">
         <v>624</v>
       </c>
@@ -24626,7 +24627,7 @@
       <c r="O390" s="2"/>
       <c r="P390" s="9"/>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="7" t="s">
         <v>625</v>
       </c>
@@ -24672,7 +24673,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="7" t="s">
         <v>627</v>
       </c>
@@ -24718,7 +24719,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="7" t="s">
         <v>629</v>
       </c>
@@ -24764,7 +24765,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="7" t="s">
         <v>631</v>
       </c>
@@ -24810,7 +24811,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="7" t="s">
         <v>633</v>
       </c>
@@ -24856,7 +24857,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="7" t="s">
         <v>635</v>
       </c>
@@ -24902,7 +24903,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="7" t="s">
         <v>637</v>
       </c>
@@ -24948,7 +24949,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="7" t="s">
         <v>639</v>
       </c>
@@ -24994,7 +24995,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="7" t="s">
         <v>641</v>
       </c>
@@ -25040,7 +25041,7 @@
       <c r="O399" s="2"/>
       <c r="P399" s="9"/>
     </row>
-    <row r="400" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="7" t="s">
         <v>642</v>
       </c>
@@ -25084,7 +25085,7 @@
       <c r="O400" s="2"/>
       <c r="P400" s="9"/>
     </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="7" t="s">
         <v>644</v>
       </c>
@@ -25130,7 +25131,7 @@
       <c r="O401" s="2"/>
       <c r="P401" s="9"/>
     </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="7" t="s">
         <v>645</v>
       </c>
@@ -25174,7 +25175,7 @@
       <c r="O402" s="2"/>
       <c r="P402" s="9"/>
     </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="7" t="s">
         <v>647</v>
       </c>
@@ -25220,7 +25221,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="7" t="s">
         <v>649</v>
       </c>
@@ -25264,7 +25265,7 @@
       <c r="O404" s="2"/>
       <c r="P404" s="9"/>
     </row>
-    <row r="405" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="7" t="s">
         <v>650</v>
       </c>
@@ -25310,7 +25311,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="406" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="7" t="s">
         <v>652</v>
       </c>
@@ -25356,7 +25357,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="7" t="s">
         <v>654</v>
       </c>
@@ -25402,7 +25403,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="7" t="s">
         <v>656</v>
       </c>
@@ -25448,7 +25449,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="409" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="7" t="s">
         <v>658</v>
       </c>
@@ -25494,7 +25495,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="410" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="7" t="s">
         <v>660</v>
       </c>
@@ -25540,7 +25541,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="411" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="7" t="s">
         <v>662</v>
       </c>
@@ -25586,7 +25587,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="412" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="7" t="s">
         <v>663</v>
       </c>
@@ -29174,7 +29175,7 @@
       <c r="O490" s="2"/>
       <c r="P490" s="9"/>
     </row>
-    <row r="491" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="7" t="s">
         <v>780</v>
       </c>
@@ -29220,7 +29221,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="492" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="7" t="s">
         <v>782</v>
       </c>
@@ -29266,7 +29267,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="493" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="7" t="s">
         <v>784</v>
       </c>
@@ -29312,7 +29313,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="494" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="7" t="s">
         <v>786</v>
       </c>
@@ -29356,7 +29357,7 @@
       <c r="O494" s="2"/>
       <c r="P494" s="9"/>
     </row>
-    <row r="495" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="7" t="s">
         <v>788</v>
       </c>
@@ -29400,7 +29401,7 @@
       <c r="O495" s="2"/>
       <c r="P495" s="9"/>
     </row>
-    <row r="496" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="7" t="s">
         <v>790</v>
       </c>
@@ -29446,7 +29447,7 @@
       <c r="O496" s="2"/>
       <c r="P496" s="9"/>
     </row>
-    <row r="497" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="7" t="s">
         <v>792</v>
       </c>
@@ -29490,7 +29491,7 @@
       <c r="O497" s="2"/>
       <c r="P497" s="9"/>
     </row>
-    <row r="498" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="7" t="s">
         <v>794</v>
       </c>
@@ -29534,7 +29535,7 @@
       <c r="O498" s="2"/>
       <c r="P498" s="9"/>
     </row>
-    <row r="499" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="7" t="s">
         <v>796</v>
       </c>
@@ -29578,7 +29579,7 @@
       <c r="O499" s="2"/>
       <c r="P499" s="9"/>
     </row>
-    <row r="500" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="7" t="s">
         <v>797</v>
       </c>
@@ -29622,7 +29623,7 @@
       <c r="O500" s="2"/>
       <c r="P500" s="9"/>
     </row>
-    <row r="501" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="7" t="s">
         <v>799</v>
       </c>
@@ -29666,7 +29667,7 @@
       <c r="O501" s="2"/>
       <c r="P501" s="9"/>
     </row>
-    <row r="502" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="7" t="s">
         <v>800</v>
       </c>
@@ -29712,7 +29713,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="503" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="7" t="s">
         <v>802</v>
       </c>
@@ -29756,7 +29757,7 @@
       <c r="O503" s="2"/>
       <c r="P503" s="9"/>
     </row>
-    <row r="504" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="7" t="s">
         <v>804</v>
       </c>
@@ -29802,7 +29803,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="505" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="7" t="s">
         <v>805</v>
       </c>
@@ -29846,7 +29847,7 @@
       <c r="O505" s="2"/>
       <c r="P505" s="9"/>
     </row>
-    <row r="506" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="7" t="s">
         <v>807</v>
       </c>
@@ -29890,7 +29891,7 @@
       <c r="O506" s="2"/>
       <c r="P506" s="9"/>
     </row>
-    <row r="507" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="7" t="s">
         <v>809</v>
       </c>
@@ -29936,7 +29937,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="508" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="7" t="s">
         <v>811</v>
       </c>
@@ -29982,7 +29983,7 @@
       <c r="O508" s="2"/>
       <c r="P508" s="9"/>
     </row>
-    <row r="509" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="7" t="s">
         <v>812</v>
       </c>
@@ -30026,7 +30027,7 @@
       <c r="O509" s="2"/>
       <c r="P509" s="9"/>
     </row>
-    <row r="510" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="7" t="s">
         <v>814</v>
       </c>
@@ -30072,7 +30073,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="511" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="7" t="s">
         <v>816</v>
       </c>
@@ -30118,7 +30119,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="512" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="7" t="s">
         <v>818</v>
       </c>
@@ -30162,7 +30163,7 @@
       <c r="O512" s="2"/>
       <c r="P512" s="9"/>
     </row>
-    <row r="513" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="7" t="s">
         <v>820</v>
       </c>
@@ -30206,7 +30207,7 @@
       <c r="O513" s="2"/>
       <c r="P513" s="9"/>
     </row>
-    <row r="514" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="7" t="s">
         <v>822</v>
       </c>
@@ -30250,7 +30251,7 @@
       <c r="O514" s="2"/>
       <c r="P514" s="9"/>
     </row>
-    <row r="515" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="7" t="s">
         <v>824</v>
       </c>
@@ -30294,7 +30295,7 @@
       <c r="O515" s="2"/>
       <c r="P515" s="9"/>
     </row>
-    <row r="516" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="7" t="s">
         <v>826</v>
       </c>
@@ -30340,7 +30341,7 @@
       <c r="O516" s="2"/>
       <c r="P516" s="9"/>
     </row>
-    <row r="517" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="7" t="s">
         <v>827</v>
       </c>
@@ -30386,7 +30387,7 @@
       <c r="O517" s="2"/>
       <c r="P517" s="9"/>
     </row>
-    <row r="518" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="7" t="s">
         <v>828</v>
       </c>
@@ -30432,7 +30433,7 @@
       <c r="O518" s="2"/>
       <c r="P518" s="9"/>
     </row>
-    <row r="519" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="7" t="s">
         <v>829</v>
       </c>
@@ -30478,7 +30479,7 @@
       <c r="O519" s="2"/>
       <c r="P519" s="9"/>
     </row>
-    <row r="520" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="7" t="s">
         <v>830</v>
       </c>
@@ -30524,7 +30525,7 @@
       <c r="O520" s="2"/>
       <c r="P520" s="9"/>
     </row>
-    <row r="521" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="7" t="s">
         <v>831</v>
       </c>
@@ -30570,7 +30571,7 @@
       <c r="O521" s="2"/>
       <c r="P521" s="9"/>
     </row>
-    <row r="522" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="7" t="s">
         <v>832</v>
       </c>
@@ -30616,7 +30617,7 @@
       <c r="O522" s="2"/>
       <c r="P522" s="9"/>
     </row>
-    <row r="523" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="7" t="s">
         <v>833</v>
       </c>
@@ -30662,7 +30663,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="524" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="7" t="s">
         <v>835</v>
       </c>
@@ -30708,7 +30709,7 @@
       <c r="O524" s="2"/>
       <c r="P524" s="9"/>
     </row>
-    <row r="525" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="7" t="s">
         <v>836</v>
       </c>
@@ -30754,7 +30755,7 @@
       <c r="O525" s="2"/>
       <c r="P525" s="9"/>
     </row>
-    <row r="526" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="7" t="s">
         <v>837</v>
       </c>
@@ -30798,7 +30799,7 @@
       <c r="O526" s="2"/>
       <c r="P526" s="9"/>
     </row>
-    <row r="527" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="7" t="s">
         <v>839</v>
       </c>
@@ -30844,7 +30845,7 @@
       <c r="O527" s="2"/>
       <c r="P527" s="9"/>
     </row>
-    <row r="528" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="7" t="s">
         <v>840</v>
       </c>
@@ -30890,7 +30891,7 @@
       <c r="O528" s="2"/>
       <c r="P528" s="9"/>
     </row>
-    <row r="529" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="7" t="s">
         <v>841</v>
       </c>
@@ -30936,7 +30937,7 @@
       <c r="O529" s="2"/>
       <c r="P529" s="9"/>
     </row>
-    <row r="530" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="7" t="s">
         <v>842</v>
       </c>
@@ -30982,7 +30983,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="531" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="7" t="s">
         <v>844</v>
       </c>
@@ -31028,7 +31029,7 @@
       <c r="O531" s="2"/>
       <c r="P531" s="9"/>
     </row>
-    <row r="532" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="7" t="s">
         <v>845</v>
       </c>
@@ -31074,7 +31075,7 @@
       <c r="O532" s="2"/>
       <c r="P532" s="9"/>
     </row>
-    <row r="533" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="7" t="s">
         <v>846</v>
       </c>
@@ -31120,7 +31121,7 @@
       <c r="O533" s="2"/>
       <c r="P533" s="9"/>
     </row>
-    <row r="534" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="7" t="s">
         <v>847</v>
       </c>
@@ -31166,7 +31167,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="535" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="7" t="s">
         <v>849</v>
       </c>
@@ -31212,7 +31213,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="536" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="7" t="s">
         <v>851</v>
       </c>
@@ -31258,7 +31259,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="537" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="7" t="s">
         <v>853</v>
       </c>
@@ -31304,7 +31305,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="538" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="7" t="s">
         <v>855</v>
       </c>
@@ -31350,7 +31351,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="539" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="7" t="s">
         <v>857</v>
       </c>
@@ -31394,7 +31395,7 @@
       <c r="O539" s="2"/>
       <c r="P539" s="9"/>
     </row>
-    <row r="540" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="7" t="s">
         <v>859</v>
       </c>
@@ -31440,7 +31441,7 @@
       <c r="O540" s="2"/>
       <c r="P540" s="9"/>
     </row>
-    <row r="541" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="7" t="s">
         <v>860</v>
       </c>
@@ -31486,7 +31487,7 @@
       <c r="O541" s="2"/>
       <c r="P541" s="9"/>
     </row>
-    <row r="542" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="7" t="s">
         <v>861</v>
       </c>
@@ -31532,7 +31533,7 @@
       <c r="O542" s="2"/>
       <c r="P542" s="9"/>
     </row>
-    <row r="543" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="7" t="s">
         <v>862</v>
       </c>
@@ -31576,7 +31577,7 @@
       <c r="O543" s="2"/>
       <c r="P543" s="9"/>
     </row>
-    <row r="544" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="7" t="s">
         <v>864</v>
       </c>
@@ -31620,7 +31621,7 @@
       <c r="O544" s="2"/>
       <c r="P544" s="9"/>
     </row>
-    <row r="545" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="7" t="s">
         <v>866</v>
       </c>
@@ -31664,7 +31665,7 @@
       <c r="O545" s="2"/>
       <c r="P545" s="9"/>
     </row>
-    <row r="546" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="7" t="s">
         <v>868</v>
       </c>
@@ -31710,7 +31711,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="547" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="7" t="s">
         <v>870</v>
       </c>
@@ -31756,7 +31757,7 @@
       <c r="O547" s="2"/>
       <c r="P547" s="9"/>
     </row>
-    <row r="548" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="7" t="s">
         <v>871</v>
       </c>
@@ -31802,7 +31803,7 @@
       <c r="O548" s="2"/>
       <c r="P548" s="9"/>
     </row>
-    <row r="549" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="7" t="s">
         <v>872</v>
       </c>
@@ -31848,7 +31849,7 @@
       <c r="O549" s="2"/>
       <c r="P549" s="9"/>
     </row>
-    <row r="550" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="7" t="s">
         <v>873</v>
       </c>
@@ -31894,7 +31895,7 @@
       <c r="O550" s="2"/>
       <c r="P550" s="9"/>
     </row>
-    <row r="551" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="7" t="s">
         <v>874</v>
       </c>
@@ -31940,7 +31941,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="552" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="7" t="s">
         <v>875</v>
       </c>
@@ -31984,7 +31985,7 @@
       <c r="O552" s="2"/>
       <c r="P552" s="9"/>
     </row>
-    <row r="553" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="7" t="s">
         <v>877</v>
       </c>
@@ -32028,7 +32029,7 @@
       <c r="O553" s="2"/>
       <c r="P553" s="9"/>
     </row>
-    <row r="554" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="7" t="s">
         <v>879</v>
       </c>
@@ -32074,7 +32075,7 @@
       <c r="O554" s="2"/>
       <c r="P554" s="9"/>
     </row>
-    <row r="555" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="7" t="s">
         <v>880</v>
       </c>
@@ -32120,7 +32121,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="556" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="7" t="s">
         <v>881</v>
       </c>
@@ -32166,7 +32167,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="557" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="7" t="s">
         <v>883</v>
       </c>
@@ -32212,7 +32213,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="558" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="7" t="s">
         <v>885</v>
       </c>
@@ -32258,7 +32259,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="559" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="7" t="s">
         <v>887</v>
       </c>
@@ -32302,7 +32303,7 @@
       <c r="O559" s="2"/>
       <c r="P559" s="9"/>
     </row>
-    <row r="560" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="7" t="s">
         <v>888</v>
       </c>
@@ -32346,7 +32347,7 @@
       <c r="O560" s="2"/>
       <c r="P560" s="9"/>
     </row>
-    <row r="561" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="7" t="s">
         <v>890</v>
       </c>
@@ -32392,7 +32393,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="562" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="7" t="s">
         <v>892</v>
       </c>
@@ -32438,7 +32439,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="563" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="7" t="s">
         <v>894</v>
       </c>
@@ -32482,7 +32483,7 @@
       <c r="O563" s="2"/>
       <c r="P563" s="9"/>
     </row>
-    <row r="564" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="7" t="s">
         <v>896</v>
       </c>
@@ -32526,7 +32527,7 @@
       <c r="O564" s="2"/>
       <c r="P564" s="9"/>
     </row>
-    <row r="565" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="7" t="s">
         <v>898</v>
       </c>
@@ -32572,7 +32573,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="566" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="7" t="s">
         <v>900</v>
       </c>
@@ -32618,7 +32619,7 @@
       <c r="O566" s="2"/>
       <c r="P566" s="9"/>
     </row>
-    <row r="567" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="7" t="s">
         <v>901</v>
       </c>
@@ -32664,7 +32665,7 @@
       <c r="O567" s="2"/>
       <c r="P567" s="9"/>
     </row>
-    <row r="568" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="7" t="s">
         <v>902</v>
       </c>
@@ -32710,7 +32711,7 @@
       <c r="O568" s="2"/>
       <c r="P568" s="9"/>
     </row>
-    <row r="569" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="7" t="s">
         <v>903</v>
       </c>
@@ -32738,7 +32739,7 @@
       <c r="O569" s="2"/>
       <c r="P569" s="9"/>
     </row>
-    <row r="570" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="7" t="s">
         <v>904</v>
       </c>
@@ -32782,7 +32783,7 @@
       <c r="O570" s="2"/>
       <c r="P570" s="9"/>
     </row>
-    <row r="571" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="7" t="s">
         <v>906</v>
       </c>
@@ -32826,7 +32827,7 @@
       <c r="O571" s="2"/>
       <c r="P571" s="9"/>
     </row>
-    <row r="572" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="7" t="s">
         <v>907</v>
       </c>
@@ -32872,7 +32873,7 @@
       <c r="O572" s="2"/>
       <c r="P572" s="9"/>
     </row>
-    <row r="573" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="7" t="s">
         <v>908</v>
       </c>
@@ -32918,7 +32919,7 @@
       <c r="O573" s="2"/>
       <c r="P573" s="9"/>
     </row>
-    <row r="574" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="7" t="s">
         <v>909</v>
       </c>
@@ -32964,7 +32965,7 @@
       <c r="O574" s="2"/>
       <c r="P574" s="9"/>
     </row>
-    <row r="575" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="7" t="s">
         <v>910</v>
       </c>
@@ -33010,7 +33011,7 @@
       <c r="O575" s="2"/>
       <c r="P575" s="9"/>
     </row>
-    <row r="576" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="7" t="s">
         <v>911</v>
       </c>
@@ -33056,7 +33057,7 @@
       <c r="O576" s="2"/>
       <c r="P576" s="9"/>
     </row>
-    <row r="577" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="7" t="s">
         <v>912</v>
       </c>
@@ -33100,7 +33101,7 @@
       <c r="O577" s="2"/>
       <c r="P577" s="9"/>
     </row>
-    <row r="578" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="7" t="s">
         <v>914</v>
       </c>
@@ -33144,7 +33145,7 @@
       <c r="O578" s="2"/>
       <c r="P578" s="9"/>
     </row>
-    <row r="579" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="7" t="s">
         <v>915</v>
       </c>
@@ -33190,7 +33191,7 @@
       <c r="O579" s="2"/>
       <c r="P579" s="9"/>
     </row>
-    <row r="580" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="7" t="s">
         <v>916</v>
       </c>
@@ -33236,7 +33237,7 @@
       <c r="O580" s="2"/>
       <c r="P580" s="9"/>
     </row>
-    <row r="581" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="7" t="s">
         <v>917</v>
       </c>
@@ -33282,7 +33283,7 @@
       <c r="O581" s="2"/>
       <c r="P581" s="9"/>
     </row>
-    <row r="582" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="7" t="s">
         <v>918</v>
       </c>
@@ -33328,7 +33329,7 @@
       <c r="O582" s="2"/>
       <c r="P582" s="9"/>
     </row>
-    <row r="583" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="7" t="s">
         <v>919</v>
       </c>
@@ -33374,7 +33375,7 @@
       <c r="O583" s="2"/>
       <c r="P583" s="9"/>
     </row>
-    <row r="584" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="7" t="s">
         <v>920</v>
       </c>
@@ -33420,7 +33421,7 @@
       <c r="O584" s="2"/>
       <c r="P584" s="9"/>
     </row>
-    <row r="585" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="7" t="s">
         <v>921</v>
       </c>
@@ -33466,7 +33467,7 @@
       <c r="O585" s="2"/>
       <c r="P585" s="9"/>
     </row>
-    <row r="586" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="7" t="s">
         <v>922</v>
       </c>
@@ -33512,7 +33513,7 @@
       <c r="O586" s="2"/>
       <c r="P586" s="9"/>
     </row>
-    <row r="587" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="7" t="s">
         <v>923</v>
       </c>
@@ -33556,7 +33557,7 @@
       <c r="O587" s="2"/>
       <c r="P587" s="9"/>
     </row>
-    <row r="588" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="7" t="s">
         <v>925</v>
       </c>
@@ -33602,7 +33603,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="589" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="7" t="s">
         <v>926</v>
       </c>
@@ -33648,7 +33649,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="590" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="7" t="s">
         <v>928</v>
       </c>
@@ -33694,7 +33695,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="591" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="7" t="s">
         <v>929</v>
       </c>
@@ -33740,7 +33741,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="592" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="7" t="s">
         <v>931</v>
       </c>
@@ -33786,7 +33787,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="593" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="7" t="s">
         <v>933</v>
       </c>
@@ -33832,7 +33833,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="594" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="7" t="s">
         <v>935</v>
       </c>
@@ -33876,7 +33877,7 @@
       <c r="O594" s="2"/>
       <c r="P594" s="9"/>
     </row>
-    <row r="595" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="7" t="s">
         <v>937</v>
       </c>
@@ -33920,7 +33921,7 @@
       <c r="O595" s="2"/>
       <c r="P595" s="9"/>
     </row>
-    <row r="596" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="7" t="s">
         <v>939</v>
       </c>
@@ -33966,7 +33967,7 @@
       <c r="O596" s="2"/>
       <c r="P596" s="9"/>
     </row>
-    <row r="597" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="7" t="s">
         <v>940</v>
       </c>
@@ -34012,7 +34013,7 @@
       <c r="O597" s="2"/>
       <c r="P597" s="9"/>
     </row>
-    <row r="598" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="7" t="s">
         <v>941</v>
       </c>
@@ -34058,7 +34059,7 @@
       <c r="O598" s="2"/>
       <c r="P598" s="9"/>
     </row>
-    <row r="599" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="7" t="s">
         <v>942</v>
       </c>
@@ -34104,7 +34105,7 @@
       <c r="O599" s="2"/>
       <c r="P599" s="9"/>
     </row>
-    <row r="600" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="7" t="s">
         <v>943</v>
       </c>
@@ -34148,7 +34149,7 @@
       <c r="O600" s="2"/>
       <c r="P600" s="9"/>
     </row>
-    <row r="601" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="7" t="s">
         <v>945</v>
       </c>
@@ -34192,7 +34193,7 @@
       <c r="O601" s="2"/>
       <c r="P601" s="9"/>
     </row>
-    <row r="602" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="7" t="s">
         <v>947</v>
       </c>
@@ -34236,7 +34237,7 @@
       <c r="O602" s="2"/>
       <c r="P602" s="9"/>
     </row>
-    <row r="603" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="7" t="s">
         <v>949</v>
       </c>
@@ -34282,7 +34283,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="604" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="7" t="s">
         <v>951</v>
       </c>
@@ -34328,7 +34329,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="605" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="7" t="s">
         <v>953</v>
       </c>
@@ -34374,7 +34375,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="606" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="7" t="s">
         <v>955</v>
       </c>
@@ -34420,7 +34421,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="607" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="7" t="s">
         <v>957</v>
       </c>
@@ -34466,7 +34467,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="608" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="7" t="s">
         <v>959</v>
       </c>
@@ -34512,7 +34513,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="609" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="7" t="s">
         <v>961</v>
       </c>
@@ -34558,7 +34559,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="610" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="7" t="s">
         <v>963</v>
       </c>
@@ -34602,7 +34603,7 @@
       <c r="O610" s="2"/>
       <c r="P610" s="9"/>
     </row>
-    <row r="611" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="7" t="s">
         <v>965</v>
       </c>
@@ -34646,7 +34647,7 @@
       <c r="O611" s="2"/>
       <c r="P611" s="9"/>
     </row>
-    <row r="612" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="7" t="s">
         <v>967</v>
       </c>
@@ -34690,7 +34691,7 @@
       <c r="O612" s="2"/>
       <c r="P612" s="9"/>
     </row>
-    <row r="613" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="7" t="s">
         <v>969</v>
       </c>
@@ -34736,7 +34737,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="614" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="7" t="s">
         <v>971</v>
       </c>
@@ -34782,7 +34783,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="615" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" s="7" t="s">
         <v>973</v>
       </c>
@@ -34826,7 +34827,7 @@
       <c r="O615" s="2"/>
       <c r="P615" s="9"/>
     </row>
-    <row r="616" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" s="7" t="s">
         <v>975</v>
       </c>
@@ -34870,7 +34871,7 @@
       <c r="O616" s="2"/>
       <c r="P616" s="9"/>
     </row>
-    <row r="617" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="7" t="s">
         <v>977</v>
       </c>
@@ -34916,7 +34917,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="618" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="7" t="s">
         <v>979</v>
       </c>
@@ -34960,7 +34961,7 @@
       <c r="O618" s="2"/>
       <c r="P618" s="9"/>
     </row>
-    <row r="619" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" s="7" t="s">
         <v>980</v>
       </c>
@@ -35006,7 +35007,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="620" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="7" t="s">
         <v>982</v>
       </c>
@@ -35052,7 +35053,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="621" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" s="7" t="s">
         <v>984</v>
       </c>
@@ -35098,7 +35099,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="622" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="7" t="s">
         <v>986</v>
       </c>
@@ -35142,7 +35143,7 @@
       <c r="O622" s="2"/>
       <c r="P622" s="9"/>
     </row>
-    <row r="623" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" s="7" t="s">
         <v>988</v>
       </c>
@@ -35188,7 +35189,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="624" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" s="7" t="s">
         <v>990</v>
       </c>
@@ -35234,7 +35235,7 @@
       <c r="O624" s="2"/>
       <c r="P624" s="9"/>
     </row>
-    <row r="625" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" s="7" t="s">
         <v>991</v>
       </c>
@@ -35280,7 +35281,7 @@
       <c r="O625" s="2"/>
       <c r="P625" s="9"/>
     </row>
-    <row r="626" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" s="7" t="s">
         <v>992</v>
       </c>
@@ -35326,7 +35327,7 @@
       <c r="O626" s="2"/>
       <c r="P626" s="9"/>
     </row>
-    <row r="627" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" s="7" t="s">
         <v>993</v>
       </c>
@@ -35372,7 +35373,7 @@
       <c r="O627" s="2"/>
       <c r="P627" s="9"/>
     </row>
-    <row r="628" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" s="7" t="s">
         <v>994</v>
       </c>
@@ -35418,7 +35419,7 @@
       <c r="O628" s="2"/>
       <c r="P628" s="9"/>
     </row>
-    <row r="629" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" s="7" t="s">
         <v>995</v>
       </c>
@@ -35464,7 +35465,7 @@
       <c r="O629" s="2"/>
       <c r="P629" s="9"/>
     </row>
-    <row r="630" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" s="7" t="s">
         <v>996</v>
       </c>
@@ -35510,7 +35511,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="631" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" s="7" t="s">
         <v>998</v>
       </c>
@@ -35556,7 +35557,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="632" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" s="7" t="s">
         <v>1000</v>
       </c>
@@ -35602,7 +35603,7 @@
       <c r="O632" s="2"/>
       <c r="P632" s="9"/>
     </row>
-    <row r="633" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" s="7" t="s">
         <v>1001</v>
       </c>
@@ -35648,7 +35649,7 @@
       <c r="O633" s="2"/>
       <c r="P633" s="9"/>
     </row>
-    <row r="634" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" s="7" t="s">
         <v>1002</v>
       </c>
@@ -35692,7 +35693,7 @@
       <c r="O634" s="2"/>
       <c r="P634" s="9"/>
     </row>
-    <row r="635" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" s="7" t="s">
         <v>1004</v>
       </c>
@@ -35738,7 +35739,7 @@
       <c r="O635" s="2"/>
       <c r="P635" s="9"/>
     </row>
-    <row r="636" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" s="7" t="s">
         <v>1005</v>
       </c>
@@ -35782,7 +35783,7 @@
       <c r="O636" s="2"/>
       <c r="P636" s="9"/>
     </row>
-    <row r="637" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" s="7" t="s">
         <v>1006</v>
       </c>
@@ -35828,7 +35829,7 @@
       <c r="O637" s="2"/>
       <c r="P637" s="9"/>
     </row>
-    <row r="638" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" s="7" t="s">
         <v>1007</v>
       </c>
@@ -35872,7 +35873,7 @@
       <c r="O638" s="2"/>
       <c r="P638" s="9"/>
     </row>
-    <row r="639" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" s="7" t="s">
         <v>1009</v>
       </c>
@@ -35916,7 +35917,7 @@
       <c r="O639" s="2"/>
       <c r="P639" s="9"/>
     </row>
-    <row r="640" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" s="7" t="s">
         <v>1011</v>
       </c>
@@ -35962,7 +35963,7 @@
       <c r="O640" s="2"/>
       <c r="P640" s="9"/>
     </row>
-    <row r="641" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" s="7" t="s">
         <v>1012</v>
       </c>
@@ -36006,7 +36007,7 @@
       <c r="O641" s="2"/>
       <c r="P641" s="9"/>
     </row>
-    <row r="642" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" s="7" t="s">
         <v>1013</v>
       </c>
@@ -36052,7 +36053,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="643" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" s="7" t="s">
         <v>1015</v>
       </c>
@@ -36098,7 +36099,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="644" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" s="7" t="s">
         <v>1017</v>
       </c>
@@ -36144,7 +36145,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="645" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" s="7" t="s">
         <v>1018</v>
       </c>
@@ -36190,7 +36191,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="646" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" s="7" t="s">
         <v>1019</v>
       </c>
@@ -36218,7 +36219,7 @@
       <c r="O646" s="2"/>
       <c r="P646" s="9"/>
     </row>
-    <row r="647" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" s="7" t="s">
         <v>1020</v>
       </c>
@@ -36264,7 +36265,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="648" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" s="7" t="s">
         <v>1022</v>
       </c>
@@ -36310,7 +36311,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="649" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" s="7" t="s">
         <v>1024</v>
       </c>
@@ -36356,7 +36357,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="650" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" s="7" t="s">
         <v>1026</v>
       </c>
@@ -36384,7 +36385,7 @@
       <c r="O650" s="2"/>
       <c r="P650" s="9"/>
     </row>
-    <row r="651" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" s="7" t="s">
         <v>1027</v>
       </c>
@@ -36430,7 +36431,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="652" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" s="7" t="s">
         <v>1029</v>
       </c>
@@ -36474,7 +36475,7 @@
       <c r="O652" s="2"/>
       <c r="P652" s="9"/>
     </row>
-    <row r="653" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" s="7" t="s">
         <v>1030</v>
       </c>
@@ -36518,7 +36519,7 @@
       <c r="O653" s="2"/>
       <c r="P653" s="9"/>
     </row>
-    <row r="654" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" s="7" t="s">
         <v>1032</v>
       </c>
@@ -36564,7 +36565,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="655" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" s="7" t="s">
         <v>1034</v>
       </c>
@@ -36608,7 +36609,7 @@
       <c r="O655" s="2"/>
       <c r="P655" s="9"/>
     </row>
-    <row r="656" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" s="7" t="s">
         <v>1035</v>
       </c>
@@ -36652,7 +36653,7 @@
       <c r="O656" s="2"/>
       <c r="P656" s="9"/>
     </row>
-    <row r="657" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" s="7" t="s">
         <v>1037</v>
       </c>
@@ -36680,7 +36681,7 @@
       <c r="O657" s="2"/>
       <c r="P657" s="9"/>
     </row>
-    <row r="658" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" s="7" t="s">
         <v>1038</v>
       </c>
@@ -36726,7 +36727,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="659" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" s="7" t="s">
         <v>1040</v>
       </c>
@@ -36772,7 +36773,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="660" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" s="7" t="s">
         <v>1042</v>
       </c>
@@ -36816,7 +36817,7 @@
       <c r="O660" s="2"/>
       <c r="P660" s="9"/>
     </row>
-    <row r="661" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" s="7" t="s">
         <v>1043</v>
       </c>
@@ -36862,7 +36863,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="662" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" s="7" t="s">
         <v>1045</v>
       </c>
@@ -36906,7 +36907,7 @@
       <c r="O662" s="2"/>
       <c r="P662" s="9"/>
     </row>
-    <row r="663" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" s="7" t="s">
         <v>1047</v>
       </c>
@@ -36934,7 +36935,7 @@
       <c r="O663" s="2"/>
       <c r="P663" s="9"/>
     </row>
-    <row r="664" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" s="7" t="s">
         <v>1048</v>
       </c>
@@ -36980,7 +36981,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="665" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" s="7" t="s">
         <v>1049</v>
       </c>
@@ -37026,7 +37027,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="666" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" s="7" t="s">
         <v>1051</v>
       </c>
@@ -37072,7 +37073,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="667" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" s="7" t="s">
         <v>1053</v>
       </c>
@@ -37100,7 +37101,7 @@
       <c r="O667" s="2"/>
       <c r="P667" s="9"/>
     </row>
-    <row r="668" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" s="7" t="s">
         <v>1054</v>
       </c>
@@ -37146,7 +37147,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="669" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" s="7" t="s">
         <v>1056</v>
       </c>
@@ -37192,7 +37193,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="670" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" s="7" t="s">
         <v>1058</v>
       </c>
@@ -37238,7 +37239,7 @@
       <c r="O670" s="2"/>
       <c r="P670" s="9"/>
     </row>
-    <row r="671" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" s="7" t="s">
         <v>1059</v>
       </c>
@@ -37284,7 +37285,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="672" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" s="7" t="s">
         <v>1061</v>
       </c>
@@ -37330,7 +37331,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="673" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" s="7" t="s">
         <v>1063</v>
       </c>
@@ -37376,7 +37377,7 @@
       <c r="O673" s="2"/>
       <c r="P673" s="9"/>
     </row>
-    <row r="674" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" s="7" t="s">
         <v>1064</v>
       </c>
@@ -37422,7 +37423,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="675" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" s="7" t="s">
         <v>1066</v>
       </c>
@@ -37466,7 +37467,7 @@
       <c r="O675" s="2"/>
       <c r="P675" s="9"/>
     </row>
-    <row r="676" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" s="7" t="s">
         <v>1068</v>
       </c>
@@ -37512,7 +37513,7 @@
       <c r="O676" s="2"/>
       <c r="P676" s="9"/>
     </row>
-    <row r="677" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" s="7" t="s">
         <v>1069</v>
       </c>
@@ -37556,7 +37557,7 @@
       <c r="O677" s="2"/>
       <c r="P677" s="9"/>
     </row>
-    <row r="678" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" s="7" t="s">
         <v>1071</v>
       </c>
@@ -37602,7 +37603,7 @@
       <c r="O678" s="2"/>
       <c r="P678" s="9"/>
     </row>
-    <row r="679" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" s="7" t="s">
         <v>1072</v>
       </c>
@@ -37648,7 +37649,7 @@
       <c r="O679" s="2"/>
       <c r="P679" s="9"/>
     </row>
-    <row r="680" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" s="7" t="s">
         <v>1073</v>
       </c>
@@ -37694,7 +37695,7 @@
       <c r="O680" s="2"/>
       <c r="P680" s="9"/>
     </row>
-    <row r="681" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" s="7" t="s">
         <v>1074</v>
       </c>
@@ -37740,7 +37741,7 @@
       <c r="O681" s="2"/>
       <c r="P681" s="9"/>
     </row>
-    <row r="682" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" s="7" t="s">
         <v>1075</v>
       </c>
@@ -37786,7 +37787,7 @@
       <c r="O682" s="2"/>
       <c r="P682" s="9"/>
     </row>
-    <row r="683" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" s="7" t="s">
         <v>1076</v>
       </c>
@@ -37832,7 +37833,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="684" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" s="7" t="s">
         <v>1077</v>
       </c>
@@ -37878,7 +37879,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="685" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" s="7" t="s">
         <v>1079</v>
       </c>
@@ -37924,7 +37925,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="686" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" s="7" t="s">
         <v>1081</v>
       </c>
@@ -37970,7 +37971,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="687" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" s="7" t="s">
         <v>1082</v>
       </c>
@@ -38014,7 +38015,7 @@
       <c r="O687" s="2"/>
       <c r="P687" s="9"/>
     </row>
-    <row r="688" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" s="7" t="s">
         <v>1084</v>
       </c>
@@ -38042,7 +38043,7 @@
       <c r="O688" s="2"/>
       <c r="P688" s="9"/>
     </row>
-    <row r="689" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" s="7" t="s">
         <v>1085</v>
       </c>
@@ -38086,7 +38087,7 @@
       <c r="O689" s="2"/>
       <c r="P689" s="9"/>
     </row>
-    <row r="690" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" s="7" t="s">
         <v>1087</v>
       </c>
@@ -38132,7 +38133,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="691" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" s="7" t="s">
         <v>1089</v>
       </c>
@@ -38178,7 +38179,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="692" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" s="7" t="s">
         <v>1090</v>
       </c>
@@ -38222,7 +38223,7 @@
       <c r="O692" s="2"/>
       <c r="P692" s="9"/>
     </row>
-    <row r="693" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" s="7" t="s">
         <v>1091</v>
       </c>
@@ -38266,7 +38267,7 @@
       <c r="O693" s="2"/>
       <c r="P693" s="9"/>
     </row>
-    <row r="694" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" s="7" t="s">
         <v>1093</v>
       </c>
@@ -38312,7 +38313,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="695" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" s="7" t="s">
         <v>1094</v>
       </c>
@@ -38356,7 +38357,7 @@
       <c r="O695" s="2"/>
       <c r="P695" s="9"/>
     </row>
-    <row r="696" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" s="7" t="s">
         <v>1095</v>
       </c>
@@ -38402,7 +38403,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="697" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" s="7" t="s">
         <v>1097</v>
       </c>
@@ -38448,7 +38449,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="698" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" s="7" t="s">
         <v>1099</v>
       </c>
@@ -38494,7 +38495,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="699" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" s="7" t="s">
         <v>1101</v>
       </c>
@@ -38540,7 +38541,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="700" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" s="7" t="s">
         <v>1103</v>
       </c>
@@ -38586,7 +38587,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="701" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" s="7" t="s">
         <v>1105</v>
       </c>
@@ -38632,7 +38633,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="702" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" s="7" t="s">
         <v>1107</v>
       </c>
@@ -38678,7 +38679,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="703" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" s="7" t="s">
         <v>1109</v>
       </c>
@@ -38724,7 +38725,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="704" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" s="7" t="s">
         <v>1111</v>
       </c>
@@ -38768,7 +38769,7 @@
       <c r="O704" s="2"/>
       <c r="P704" s="9"/>
     </row>
-    <row r="705" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" s="7" t="s">
         <v>1113</v>
       </c>
@@ -38812,7 +38813,7 @@
       <c r="O705" s="2"/>
       <c r="P705" s="9"/>
     </row>
-    <row r="706" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" s="7" t="s">
         <v>1115</v>
       </c>
@@ -38858,7 +38859,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="707" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" s="7" t="s">
         <v>1117</v>
       </c>
@@ -38902,7 +38903,7 @@
       <c r="O707" s="2"/>
       <c r="P707" s="9"/>
     </row>
-    <row r="708" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" s="7" t="s">
         <v>1119</v>
       </c>
@@ -38948,7 +38949,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="709" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" s="7" t="s">
         <v>1120</v>
       </c>
@@ -38992,7 +38993,7 @@
       <c r="O709" s="2"/>
       <c r="P709" s="9"/>
     </row>
-    <row r="710" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" s="7" t="s">
         <v>1122</v>
       </c>
@@ -39038,7 +39039,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="711" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" s="7" t="s">
         <v>1124</v>
       </c>
@@ -39084,7 +39085,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="712" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" s="7" t="s">
         <v>1126</v>
       </c>
@@ -39130,7 +39131,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="713" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" s="7" t="s">
         <v>1128</v>
       </c>
@@ -39176,7 +39177,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="714" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" s="7" t="s">
         <v>1130</v>
       </c>
@@ -39222,7 +39223,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="715" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" s="7" t="s">
         <v>1132</v>
       </c>
@@ -39266,7 +39267,7 @@
       <c r="O715" s="2"/>
       <c r="P715" s="9"/>
     </row>
-    <row r="716" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" s="7" t="s">
         <v>1134</v>
       </c>
@@ -39312,7 +39313,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="717" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" s="7" t="s">
         <v>1136</v>
       </c>
@@ -39358,7 +39359,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="718" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" s="7" t="s">
         <v>1138</v>
       </c>
@@ -39404,7 +39405,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="719" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" s="7" t="s">
         <v>1140</v>
       </c>
@@ -39450,7 +39451,7 @@
       <c r="O719" s="2"/>
       <c r="P719" s="9"/>
     </row>
-    <row r="720" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" s="7" t="s">
         <v>1141</v>
       </c>
@@ -39496,7 +39497,7 @@
       <c r="O720" s="2"/>
       <c r="P720" s="9"/>
     </row>
-    <row r="721" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" s="7" t="s">
         <v>1142</v>
       </c>
@@ -39540,7 +39541,7 @@
       <c r="O721" s="2"/>
       <c r="P721" s="9"/>
     </row>
-    <row r="722" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" s="7" t="s">
         <v>1144</v>
       </c>
@@ -39586,7 +39587,7 @@
       <c r="O722" s="2"/>
       <c r="P722" s="9"/>
     </row>
-    <row r="723" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" s="7" t="s">
         <v>1145</v>
       </c>
@@ -39614,7 +39615,7 @@
       <c r="O723" s="2"/>
       <c r="P723" s="9"/>
     </row>
-    <row r="724" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" s="7" t="s">
         <v>1146</v>
       </c>
@@ -39660,7 +39661,7 @@
       <c r="O724" s="2"/>
       <c r="P724" s="9"/>
     </row>
-    <row r="725" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" s="7" t="s">
         <v>1147</v>
       </c>
@@ -39706,7 +39707,7 @@
       <c r="O725" s="2"/>
       <c r="P725" s="9"/>
     </row>
-    <row r="726" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" s="7" t="s">
         <v>1148</v>
       </c>
@@ -39752,7 +39753,7 @@
       <c r="O726" s="2"/>
       <c r="P726" s="9"/>
     </row>
-    <row r="727" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" s="7" t="s">
         <v>1150</v>
       </c>
@@ -39796,7 +39797,7 @@
       <c r="O727" s="2"/>
       <c r="P727" s="9"/>
     </row>
-    <row r="728" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" s="7" t="s">
         <v>1151</v>
       </c>
@@ -39840,7 +39841,7 @@
       <c r="O728" s="2"/>
       <c r="P728" s="9"/>
     </row>
-    <row r="729" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" s="7" t="s">
         <v>1152</v>
       </c>
@@ -39886,7 +39887,7 @@
       <c r="O729" s="2"/>
       <c r="P729" s="9"/>
     </row>
-    <row r="730" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" s="7" t="s">
         <v>1153</v>
       </c>
@@ -39932,7 +39933,7 @@
       <c r="O730" s="2"/>
       <c r="P730" s="9"/>
     </row>
-    <row r="731" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" s="7" t="s">
         <v>1154</v>
       </c>
@@ -39978,7 +39979,7 @@
       <c r="O731" s="2"/>
       <c r="P731" s="9"/>
     </row>
-    <row r="732" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" s="7" t="s">
         <v>1155</v>
       </c>
@@ -40024,7 +40025,7 @@
       <c r="O732" s="2"/>
       <c r="P732" s="9"/>
     </row>
-    <row r="733" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" s="7" t="s">
         <v>1156</v>
       </c>
@@ -40070,7 +40071,7 @@
       <c r="O733" s="2"/>
       <c r="P733" s="9"/>
     </row>
-    <row r="734" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" s="7" t="s">
         <v>1157</v>
       </c>
@@ -40116,7 +40117,7 @@
       <c r="O734" s="2"/>
       <c r="P734" s="9"/>
     </row>
-    <row r="735" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" s="7" t="s">
         <v>1158</v>
       </c>
@@ -40162,7 +40163,7 @@
       <c r="O735" s="2"/>
       <c r="P735" s="9"/>
     </row>
-    <row r="736" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" s="7" t="s">
         <v>1159</v>
       </c>
@@ -40208,7 +40209,7 @@
       <c r="O736" s="2"/>
       <c r="P736" s="9"/>
     </row>
-    <row r="737" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" s="7" t="s">
         <v>1160</v>
       </c>
@@ -40254,7 +40255,7 @@
       <c r="O737" s="2"/>
       <c r="P737" s="9"/>
     </row>
-    <row r="738" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" s="7" t="s">
         <v>1161</v>
       </c>
@@ -40300,7 +40301,7 @@
       <c r="O738" s="2"/>
       <c r="P738" s="9"/>
     </row>
-    <row r="739" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" s="7" t="s">
         <v>1162</v>
       </c>
@@ -40346,7 +40347,7 @@
       <c r="O739" s="2"/>
       <c r="P739" s="9"/>
     </row>
-    <row r="740" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" s="7" t="s">
         <v>1163</v>
       </c>
@@ -40392,7 +40393,7 @@
       <c r="O740" s="2"/>
       <c r="P740" s="9"/>
     </row>
-    <row r="741" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" s="7" t="s">
         <v>1164</v>
       </c>
@@ -40438,7 +40439,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="742" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" s="7" t="s">
         <v>1166</v>
       </c>
@@ -40484,7 +40485,7 @@
       <c r="O742" s="2"/>
       <c r="P742" s="9"/>
     </row>
-    <row r="743" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" s="7" t="s">
         <v>1167</v>
       </c>
@@ -40576,7 +40577,7 @@
       <c r="O744" s="2"/>
       <c r="P744" s="9"/>
     </row>
-    <row r="745" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" s="7" t="s">
         <v>1170</v>
       </c>
@@ -40622,7 +40623,7 @@
       <c r="O745" s="2"/>
       <c r="P745" s="9"/>
     </row>
-    <row r="746" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" s="7" t="s">
         <v>1171</v>
       </c>
@@ -40668,7 +40669,7 @@
       <c r="O746" s="2"/>
       <c r="P746" s="9"/>
     </row>
-    <row r="747" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" s="7" t="s">
         <v>1172</v>
       </c>
@@ -40714,7 +40715,7 @@
       <c r="O747" s="2"/>
       <c r="P747" s="9"/>
     </row>
-    <row r="748" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" s="7" t="s">
         <v>1173</v>
       </c>
@@ -40758,7 +40759,7 @@
       <c r="O748" s="2"/>
       <c r="P748" s="9"/>
     </row>
-    <row r="749" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" s="7" t="s">
         <v>1175</v>
       </c>
@@ -40804,7 +40805,7 @@
       <c r="O749" s="2"/>
       <c r="P749" s="9"/>
     </row>
-    <row r="750" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" s="7" t="s">
         <v>1176</v>
       </c>
@@ -40850,7 +40851,7 @@
       <c r="O750" s="2"/>
       <c r="P750" s="9"/>
     </row>
-    <row r="751" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" s="7" t="s">
         <v>1177</v>
       </c>
@@ -40896,7 +40897,7 @@
       <c r="O751" s="2"/>
       <c r="P751" s="9"/>
     </row>
-    <row r="752" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" s="7" t="s">
         <v>1178</v>
       </c>
@@ -40942,7 +40943,7 @@
       <c r="O752" s="2"/>
       <c r="P752" s="9"/>
     </row>
-    <row r="753" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" s="7" t="s">
         <v>1179</v>
       </c>
@@ -40988,7 +40989,7 @@
       <c r="O753" s="2"/>
       <c r="P753" s="9"/>
     </row>
-    <row r="754" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" s="7" t="s">
         <v>1180</v>
       </c>
@@ -41034,7 +41035,7 @@
       <c r="O754" s="2"/>
       <c r="P754" s="9"/>
     </row>
-    <row r="755" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" s="7" t="s">
         <v>1181</v>
       </c>
@@ -41080,7 +41081,7 @@
       <c r="O755" s="2"/>
       <c r="P755" s="9"/>
     </row>
-    <row r="756" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" s="7" t="s">
         <v>1182</v>
       </c>
@@ -41126,7 +41127,7 @@
       <c r="O756" s="2"/>
       <c r="P756" s="9"/>
     </row>
-    <row r="757" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" s="7" t="s">
         <v>1183</v>
       </c>
@@ -41172,7 +41173,7 @@
       <c r="O757" s="2"/>
       <c r="P757" s="9"/>
     </row>
-    <row r="758" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" s="7" t="s">
         <v>1184</v>
       </c>
@@ -41218,7 +41219,7 @@
       <c r="O758" s="2"/>
       <c r="P758" s="9"/>
     </row>
-    <row r="759" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" s="7" t="s">
         <v>1185</v>
       </c>
@@ -41264,7 +41265,7 @@
       <c r="O759" s="2"/>
       <c r="P759" s="9"/>
     </row>
-    <row r="760" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:16" ht="13.9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" s="7" t="s">
         <v>1186</v>
       </c>
@@ -41293,7 +41294,14 @@
       <c r="P760" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P760" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:P760" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Đà Nẵng"/>
+        <filter val="Quảng Nam"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>